--- a/design/画面仕様書.xlsx
+++ b/design/画面仕様書.xlsx
@@ -5,24 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\オンラインスキルアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\BrastoChatter\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="やりたいことのドラフト" sheetId="2" r:id="rId1"/>
     <sheet name="画面遷移図" sheetId="1" r:id="rId2"/>
     <sheet name="機能一覧" sheetId="3" r:id="rId3"/>
-    <sheet name="トップ画面" sheetId="4" r:id="rId4"/>
-    <sheet name="ユーザー登録画面" sheetId="6" r:id="rId5"/>
-    <sheet name="チャット画面" sheetId="7" r:id="rId6"/>
-    <sheet name="部屋作成画面" sheetId="8" r:id="rId7"/>
-    <sheet name="部屋画面（チャットモード）" sheetId="9" r:id="rId8"/>
-    <sheet name="部屋画面（整理モード）" sheetId="10" r:id="rId9"/>
-    <sheet name="共通ヘッダー" sheetId="11" r:id="rId10"/>
-    <sheet name="画面仕様書のテンプレ" sheetId="5" r:id="rId11"/>
+    <sheet name="チャット画面" sheetId="7" r:id="rId4"/>
+    <sheet name="部屋作成画面" sheetId="8" r:id="rId5"/>
+    <sheet name="部屋画面（チャットモード）" sheetId="9" r:id="rId6"/>
+    <sheet name="部屋画面（整理モード）" sheetId="10" r:id="rId7"/>
+    <sheet name="共通ヘッダー" sheetId="11" r:id="rId8"/>
+    <sheet name="画面仕様書のテンプレ" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>作りたいサイトのコンセプト</t>
     <rPh sb="0" eb="1">
@@ -292,19 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブレストチャッター（仮）機能一覧</t>
-    <rPh sb="10" eb="11">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -324,16 +309,6 @@
   <si>
     <t>トップ画面</t>
     <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録画面</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -369,17 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーの登録</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>部屋の表示、入室</t>
     <rPh sb="0" eb="2">
       <t>ヘヤ</t>
@@ -399,20 +363,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャット情報の整理</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,29 +424,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面、ユーザー登録への遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーの新規登録</t>
-    <rPh sb="5" eb="7">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -593,9 +520,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エントランス画面</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
+    <t>チャットとチャットの移動・グルーピング</t>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレストチャッター　機能一覧</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大沼 峻徳</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヌマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -890,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,6 +913,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -983,14 +939,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -999,8 +955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5857875" y="4152901"/>
-          <a:ext cx="4457700" cy="5810250"/>
+          <a:off x="5913293" y="4398818"/>
+          <a:ext cx="4506191" cy="2216727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,78 +987,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1057275" y="1000125"/>
-          <a:ext cx="3724275" cy="2209800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1112,7 +1002,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログイン機能</a:t>
+            <a:t>普通にチャットが出来、</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -1120,182 +1010,6 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1590675" y="800100"/>
-          <a:ext cx="2628900" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>トップ画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4819650" y="2105025"/>
-          <a:ext cx="1323975" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6210300" y="1009650"/>
-          <a:ext cx="3724275" cy="2209800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -1304,81 +1018,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ユーザー登録機能</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6734175" y="809625"/>
-          <a:ext cx="2628900" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユーザー登録画面</a:t>
+            <a:t>更にチャットボードに登録されるとそのチャット（リーフ）の移動やリーフのグループ化などの整理を行うことが出来る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1447,7 +1087,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>部屋への入室</a:t>
+            <a:t>部屋の表示・入室</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -1461,26 +1101,77 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800601" y="5514975"/>
+          <a:ext cx="1076324" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>621723</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>507423</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>11256</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1533525" y="4219575"/>
-          <a:ext cx="2628900" cy="333375"/>
+          <a:off x="6856268" y="4177145"/>
+          <a:ext cx="2656610" cy="336838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,608 +1222,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2790825" y="3276602"/>
-          <a:ext cx="0" cy="933448"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4800601" y="5514975"/>
-          <a:ext cx="1076324" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6238875" y="4648200"/>
-          <a:ext cx="3724275" cy="2209800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チャット</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6743700" y="4514850"/>
-          <a:ext cx="2628900" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チャットモード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6229350" y="7477125"/>
-          <a:ext cx="3724275" cy="2209800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チャットの移動（自由に配置）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チャットのグループ化</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>新チャットの追加</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チャット（置き場所の話し合い）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6753225" y="7296150"/>
-          <a:ext cx="2628900" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>整理モード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="3981450"/>
-          <a:ext cx="2628900" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>部屋画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10401299" y="6353175"/>
-          <a:ext cx="3095625" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>普通にチャットする時と、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>出たチャットを整理する時がある</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（基本的にどっちか）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
@@ -2160,6 +1249,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2322,33 +1413,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184439</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70139</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="1266825"/>
-          <a:ext cx="8001000" cy="4524375"/>
+          <a:off x="1569894" y="4201391"/>
+          <a:ext cx="2656609" cy="336839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,7 +1442,7 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln w="12700">
+        <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -2382,292 +1468,14 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>672032</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="314325" y="1804307"/>
-          <a:ext cx="7964100" cy="774247"/>
-          <a:chOff x="314325" y="1266825"/>
-          <a:chExt cx="7977707" cy="752475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="314325" y="1266825"/>
-            <a:ext cx="7977707" cy="752475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ブレストチャッター</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="角丸四角形 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5267325" y="1438275"/>
-            <a:ext cx="2771775" cy="447675"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>共通ヘッダシート参照</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2505075" y="2400300"/>
-          <a:ext cx="3133725" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3105150" y="2819399"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ユーザー名</a:t>
+            <a:t>トップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2676,329 +1484,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>650423</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3105150" y="3257549"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2647950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4086225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3333750" y="3714749"/>
-          <a:ext cx="1438275" cy="438151"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2000250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="4343401"/>
-          <a:ext cx="2800350" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>新規登録の方はこちら</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8458200" y="2228850"/>
-          <a:ext cx="3971925" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン入力エリア</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4305300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>31296</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4991100" y="2581275"/>
-          <a:ext cx="3381375" cy="638175"/>
+          <a:off x="4732566" y="6803571"/>
+          <a:ext cx="2737755" cy="2249261"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3018,4751 +1533,10 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8410575" y="3114675"/>
-          <a:ext cx="3971925" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>クリックするとログイン認証が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>行われる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4086227</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4772027" y="3686175"/>
-          <a:ext cx="3590923" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8420100" y="4229100"/>
-          <a:ext cx="3971925" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユーザー登録していない人は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユーザー登録画面へ行く</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4248154</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4933954" y="4514850"/>
-          <a:ext cx="3457571" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="7181850"/>
-          <a:ext cx="8001000" cy="4524375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>681557</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="グループ化 25"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="323850" y="7373711"/>
-          <a:ext cx="7964100" cy="779689"/>
-          <a:chOff x="314325" y="1266825"/>
-          <a:chExt cx="7977707" cy="752475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="314325" y="1266825"/>
-            <a:ext cx="7977707" cy="752475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ブレストチャッター</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="角丸四角形 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5267325" y="1438275"/>
-            <a:ext cx="2771775" cy="447675"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>共通ヘッダシート参照</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2514600" y="8315325"/>
-          <a:ext cx="3133725" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2400300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="8896349"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>test</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2400300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="9334499"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>****</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2628900</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4067175</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314700" y="9791699"/>
-          <a:ext cx="1438275" cy="438151"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2009775</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2695575" y="10725151"/>
-          <a:ext cx="2800350" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>新規登録の方はこちら</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1628775" y="10334625"/>
-          <a:ext cx="4991100" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユーザー名、あるいはパスワードが間違っています</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="角丸四角形 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8410575" y="10172700"/>
-          <a:ext cx="3971925" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラーメッセージを表示する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304802</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6191252" y="10458450"/>
-          <a:ext cx="2114548" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2333625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="角丸四角形 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="333375" y="1295400"/>
-          <a:ext cx="2686050" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>▼ 初期状態</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2333625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="角丸四角形 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="333375" y="6705600"/>
-          <a:ext cx="2686050" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>▼ ログインエラーの時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="1743075"/>
-          <a:ext cx="8001000" cy="4524375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5282</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="619125" y="1766207"/>
-          <a:ext cx="7958657" cy="774247"/>
-          <a:chOff x="314325" y="1266825"/>
-          <a:chExt cx="7977707" cy="752475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="314325" y="1266825"/>
-            <a:ext cx="7977707" cy="752475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ブレストチャッター</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="角丸四角形 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5267325" y="1438275"/>
-            <a:ext cx="2771775" cy="447675"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>共通ヘッダシート参照</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2809875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="3505199"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2809875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="3943349"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1943100" y="2905125"/>
-          <a:ext cx="5038725" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2695575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="3524250"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>ユーザー名：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2695575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="3952875"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>パスワード：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2705100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1352550" y="4391025"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>パスワード（確認）：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3505200" y="4381499"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2838450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524250" y="4972050"/>
-          <a:ext cx="1971675" cy="438151"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2619375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619125" y="1219200"/>
-          <a:ext cx="2686050" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>▼ 初期状態</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8886825" y="3810000"/>
-          <a:ext cx="3971925" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>登録情報入力エリア</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723901</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5724526" y="4105275"/>
-          <a:ext cx="3047999" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8858250" y="4733925"/>
-          <a:ext cx="3971925" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>クリックするとユーザーの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>新規登録が行われる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5648326" y="5191125"/>
-          <a:ext cx="3047999" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2590800</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590550" y="13506450"/>
-          <a:ext cx="2686050" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>▼ 登録エラーの時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647700" y="13306425"/>
-          <a:ext cx="8001000" cy="4829175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>43382</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="657225" y="13694229"/>
-          <a:ext cx="7958657" cy="779689"/>
-          <a:chOff x="314325" y="1266825"/>
-          <a:chExt cx="7977707" cy="752475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="314325" y="1266825"/>
-            <a:ext cx="7977707" cy="752475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ブレストチャッター</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="角丸四角形 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5267325" y="1438275"/>
-            <a:ext cx="2771775" cy="447675"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>共通ヘッダシート参照</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2809875</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="15049499"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>test</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2809875</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="15487649"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>******</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="8639175"/>
-          <a:ext cx="5038725" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2695575</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="15068550"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>ユーザー名：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2695575</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="15497175"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>パスワード：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2705100</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1352550" y="15935325"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>パスワード（確認）：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3505200" y="15925799"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>******</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2838450</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524250" y="16516350"/>
-          <a:ext cx="1971675" cy="438151"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2609850</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="6686550"/>
-          <a:ext cx="2686050" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>▼ 登録成功した時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="7581900"/>
-          <a:ext cx="8001000" cy="5276850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5282</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="グループ化 34"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="619125" y="7436304"/>
-          <a:ext cx="7958657" cy="774246"/>
-          <a:chOff x="314325" y="1266825"/>
-          <a:chExt cx="7977707" cy="752475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="314325" y="1266825"/>
-            <a:ext cx="7977707" cy="752475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ブレストチャッター</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="角丸四角形 36"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5267325" y="1438275"/>
-            <a:ext cx="2771775" cy="447675"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>共通ヘッダシート参照</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2809875</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="9344024"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>test</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2809875</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="9782174"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>********</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1943100" y="8743950"/>
-          <a:ext cx="5038725" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2695575</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="9363075"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>ユーザー名：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2695575</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="9791700"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>パスワード：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2705100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1352550" y="10229850"/>
-          <a:ext cx="2038350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>パスワード（確認）：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3505200" y="10220324"/>
-          <a:ext cx="2085975" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>********</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2838450</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524250" y="10810875"/>
-          <a:ext cx="1971675" cy="438151"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>登録完了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1628775</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2314575" y="11753851"/>
-          <a:ext cx="4257675" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログインページへ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2276475" y="11439525"/>
-          <a:ext cx="4400550" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>登録が完了しました。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8743950" y="9477375"/>
-          <a:ext cx="3971925" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>入力の変更が出来ないようにする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5629276" y="9753600"/>
-          <a:ext cx="3047999" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5657851" y="10677525"/>
-          <a:ext cx="3047999" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8724900" y="10410825"/>
-          <a:ext cx="3971925" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ボタン入力が出来ないようにする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523877</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5524502" y="11591925"/>
-          <a:ext cx="3248023" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8724900" y="11163299"/>
-          <a:ext cx="3971925" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログインページ（トップ画面）への</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リンクを表示する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1390650</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2076450" y="17135475"/>
-          <a:ext cx="5019675" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>このユーザー名は既に登録されています。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333379</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6219829" y="16573500"/>
-          <a:ext cx="2638421" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="角丸四角形 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8753475" y="15640050"/>
-          <a:ext cx="3971925" cy="1981200"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラー内容を表示する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラーの想定内容</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900" algn="l">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユーザー名の重複</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900" algn="l">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワードが一致していない</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900" algn="l">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワードが短すぎる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10621,7 +4395,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16355,7 +10129,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22532,7 +16306,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -29311,7 +23085,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -30084,7 +23858,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -30098,147 +23872,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="56.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="15">
-        <v>42120</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="56.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30254,7 +23893,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30267,43 +23906,47 @@
   <sheetData>
     <row r="2" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="11">
         <v>42117</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>43</v>
+      <c r="F3" s="11">
+        <v>42130</v>
       </c>
-      <c r="F3" s="16"/>
       <c r="G3" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
@@ -30311,40 +23954,24 @@
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>30</v>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -30357,8 +23984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30371,42 +23998,46 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="15">
         <v>42117</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="11">
+        <v>42130</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -30429,8 +24060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30443,42 +24074,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="15">
         <v>42117</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -30501,8 +24132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30515,42 +24146,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="15">
-        <v>42117</v>
+        <v>42118</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -30573,8 +24204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30587,42 +24218,46 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="15">
-        <v>42117</v>
+        <v>42118</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="11">
+        <v>42120</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -30645,8 +24280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30659,42 +24294,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="15">
-        <v>42118</v>
+        <v>42120</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -30717,8 +24352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30731,47 +24366,35 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>53</v>
+      <c r="B1" s="19"/>
+      <c r="C1" s="14" t="s">
+        <v>33</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>39</v>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
       </c>
-      <c r="D1" s="15">
-        <v>42118</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
-      <c r="D2" s="11">
-        <v>42120</v>
+      <c r="D2" s="16"/>
+      <c r="E2" s="10" t="s">
+        <v>38</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -30785,6 +24408,5 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/画面仕様書.xlsx
+++ b/design/画面仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="やりたいことのドラフト" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>作りたいサイトのコンセプト</t>
     <rPh sb="0" eb="1">
@@ -538,6 +538,19 @@
     <t>あ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>大沼 峻徳</t>
+    <rPh sb="0" eb="2">
+      <t>オオヌマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -5510,15 +5523,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266698</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>276223</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5527,8 +5540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8858248" y="3181350"/>
-          <a:ext cx="4305302" cy="2162175"/>
+          <a:off x="8867773" y="3362325"/>
+          <a:ext cx="4305302" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5627,44 +5640,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>鍵の有無（有りならパスワードも）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900" algn="l">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>公開非公開設定（？）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900" algn="l">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>非公開時のアドレス表示（？）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -26926,8 +26901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26964,11 +26939,15 @@
       <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="11">
+        <v>42131</v>
+      </c>
       <c r="E2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -26998,7 +26977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>

--- a/design/画面仕様書.xlsx
+++ b/design/画面仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="やりたいことのドラフト" sheetId="2" r:id="rId1"/>
@@ -4405,6 +4405,626 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3067051</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3752851" y="13515977"/>
+          <a:ext cx="4324349" cy="180973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="角丸四角形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962899" y="13144499"/>
+          <a:ext cx="3971925" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>鍵のアイコンかリンクをクリックするとパスワードを要求されるため入力して入る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3200400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="下矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="13744575"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="14516100"/>
+          <a:ext cx="3600450" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1695451</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286001</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381251" y="14716125"/>
+          <a:ext cx="590550" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3800475</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="14754225"/>
+          <a:ext cx="1552575" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>****</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3952876</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="角丸四角形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638676" y="14687550"/>
+          <a:ext cx="876300" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入室</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3695700</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="15097125"/>
+          <a:ext cx="1504950" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が違います</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="角丸四角形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685924" y="15801975"/>
+          <a:ext cx="4791076" cy="676276"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワードが違う場合はエラーを表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26717,7 +27337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
@@ -26825,8 +27445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26864,7 +27484,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="11">
-        <v>42130</v>
+        <v>42131</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>37</v>
@@ -26901,8 +27521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26977,7 +27597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G337" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>

--- a/design/画面仕様書.xlsx
+++ b/design/画面仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\BrestoChatter\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\BrestoChatter\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="やりたいことのドラフト" sheetId="2" r:id="rId1"/>
@@ -905,6 +905,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,12 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14265,7 +14265,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>チャットボードに表示されているものをリーフと呼び、チャット内容のみ表示させる</a:t>
+            <a:t>チャットボードに表示されているものをラベルと呼び、チャット内容のみ表示させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -22021,7 +22021,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ドラッグで指定領域を表示させ、領域内のリーフの色を変える</a:t>
+            <a:t>ドラッグで指定領域を表示させ、領域内のラベルの色を変える</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -22561,7 +22561,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>選択されたリーフ上で右クリックをすることで「グルーピング」のコンテキストメニューが表示される</a:t>
+            <a:t>選択されたラベル上で右クリックをすることで「グルーピング」のコンテキストメニューが表示される</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -22892,7 +22892,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>選択されたリーフが</a:t>
+            <a:t>選択されたラベルが</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -22908,7 +22908,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>つのリーフにまとめられる（グループリーフ）</a:t>
+            <a:t>つのグループボックスにまとめられる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -22924,7 +22924,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>グループリーフの名前はダブルクリックで編集できる</a:t>
+            <a:t>グループボックスの名前はダブルクリックで編集できる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -23361,7 +23361,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>プルダウンボタンを押すことでグループリーフが持っているリーフの内容を全てリスト形式で表示する</a:t>
+            <a:t>プルダウンボタンを押すことでグループボックスが持っているラベルの内容を全てリスト形式で表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -23440,7 +23440,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>グループリーフはリーフと基本的には同じ機能（ドラッグ移動など）を持ち、入れ子も認める（グループリーフをグルーピングしてもいい）</a:t>
+            <a:t>グループボックスはラベルと基本的には同じ機能（ドラッグ移動など）を持ち、入れ子も認める（グループボックスをグルーピングしてもいい）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -26055,7 +26055,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>156881</xdr:colOff>
+      <xdr:colOff>246529</xdr:colOff>
       <xdr:row>316</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:to>
@@ -26067,7 +26067,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19725148" y="52109593"/>
-          <a:ext cx="4064939" cy="1360396"/>
+          <a:ext cx="4154587" cy="1360396"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -26113,7 +26113,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>グルーピングリーフ上で右クリックをすることで「グルーピング解除」のコンテキストメニューが表示される</a:t>
+            <a:t>グルーピングボックス上で右クリックをすることで「グルーピング解除」のコンテキストメニューが表示される</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -26468,14 +26468,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>200018</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>109817</xdr:rowOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>163604</xdr:colOff>
-      <xdr:row>330</xdr:row>
-      <xdr:rowOff>125507</xdr:rowOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26484,8 +26484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19731871" y="54581611"/>
-          <a:ext cx="4064939" cy="1360396"/>
+          <a:off x="19731871" y="54337323"/>
+          <a:ext cx="4064939" cy="1683125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -26531,7 +26531,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>「グルーピング解除」を選択することでグルーピングリーフはなくなり、持っていたリーフが表示される</a:t>
+            <a:t>「グルーピング解除」を選択することでグルーピングボックスはなくなり、持っていたラベルやグループボックスが表示される</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -27445,7 +27445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -27458,10 +27458,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -27478,8 +27478,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
@@ -27497,13 +27497,13 @@
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -27521,7 +27521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -27534,10 +27534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -27554,8 +27554,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
@@ -27573,13 +27573,13 @@
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -27597,7 +27597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="G337" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
@@ -27610,10 +27610,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -27628,19 +27628,19 @@
       <c r="F1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="AF1" s="24" t="s">
+      <c r="W1" s="19"/>
+      <c r="AF1" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="11">
-        <v>42131</v>
+        <v>42153</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>37</v>
@@ -27653,13 +27653,13 @@
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -27691,10 +27691,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -27711,8 +27711,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
@@ -27726,13 +27726,13 @@
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -27763,10 +27763,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="14" t="s">
         <v>32</v>
       </c>
@@ -27777,8 +27777,8 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
@@ -27792,11 +27792,11 @@
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
